--- a/data/habitats_stoc.xlsx
+++ b/data/habitats_stoc.xlsx
@@ -1451,7 +1451,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="K57" activeCellId="0" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="K57" activeCellId="1" sqref="C:C K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4988,9 +4988,9 @@
   <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B186" activeCellId="0" sqref="B186"/>
+      <selection pane="bottomLeft" activeCell="C164" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
